--- a/HDI_Data/Layout/Salvamentos4.xlsx
+++ b/HDI_Data/Layout/Salvamentos4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Desktop\Carpeta Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Desktop\HDI Framework\Salvamentos-HDI - PruebaCiclo\HDI_Data\Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="1230" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>FACT_ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -563,6 +566,9 @@
       <c r="L2" t="s">
         <v>19</v>
       </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
